--- a/WearSystem機能仕様書.xlsx
+++ b/WearSystem機能仕様書.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\km199\Desktop\wearSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuhiro/Desktop/WEAR_SYSTEM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96385593-82C0-4E41-A8BE-E2B86FB4DC1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899DD784-0F0B-944D-87AC-F92AA4065BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{91EAEFB3-A573-405F-A73E-C2F402B2D069}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16000" xr2:uid="{91EAEFB3-A573-405F-A73E-C2F402B2D069}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="機能一覧_TOP画面" sheetId="2" r:id="rId2"/>
-    <sheet name="機能一覧_一覧画面" sheetId="3" r:id="rId3"/>
+    <sheet name="機能一覧_気になっているもの一覧画面" sheetId="4" r:id="rId3"/>
+    <sheet name="機能一覧_また欲しいもの一覧画面" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>システム概要</t>
     <rPh sb="4" eb="6">
@@ -128,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1354,6 +1355,1096 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06C01F1-E83E-AB4F-9036-470CDC105A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228601" y="701675"/>
+          <a:ext cx="9366249" cy="5562600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15876</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8047F457-EE22-5648-A208-8FE378B74AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546101" y="1530350"/>
+          <a:ext cx="2949575" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>気になっているものリスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC03DB16-8FB8-F740-92D3-838A5F166698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238126" y="711200"/>
+          <a:ext cx="2949575" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>Wish List</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139701</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90479AAF-8DA5-0547-9534-4AD3B5761017}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384301" y="2133600"/>
+          <a:ext cx="6603999" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>画像、ジャンル、名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE342A74-72CD-2040-84BC-0EB0F2F7D92E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1406526" y="4632325"/>
+          <a:ext cx="6603999" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>画像、ジャンル、名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A86424B-ACF2-6F4E-96D8-4C2F198BD7A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1416051" y="3746500"/>
+          <a:ext cx="6603999" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>画像、ジャンル、名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C101BA9-F36F-3A4E-8819-FEEB3209C492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1406526" y="2946400"/>
+          <a:ext cx="6603999" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>画像、ジャンル、名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>82553</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9588AC75-31FE-3749-8146-EEAEE23756EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8032753" y="5359399"/>
+          <a:ext cx="641348" cy="317501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A9C006-27B5-384A-9903-B98F71BE8AAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228601" y="701675"/>
+          <a:ext cx="9366249" cy="5562600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15876</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03598E2-76FA-C345-88B5-ACB108EE6EA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546101" y="1530350"/>
+          <a:ext cx="2949575" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>気になっているものリスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3188D5D-DDEA-C44F-9602-3308F6DA7BE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238126" y="711200"/>
+          <a:ext cx="2949575" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>Wish List</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139701</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C285DB8-16EE-0C42-A480-BB4266CF8A01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384301" y="2133600"/>
+          <a:ext cx="6603999" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>画像、ジャンル、名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E40E9E0-D55E-5B4F-B4BC-897C52B7A345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1406526" y="4632325"/>
+          <a:ext cx="6603999" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>画像、ジャンル、名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A694BA8F-C6BA-E54B-92EE-BD1420BC6BC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1416051" y="3746500"/>
+          <a:ext cx="6603999" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>画像、ジャンル、名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A15E921-D4D1-4E43-B443-D6333C4697D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1406526" y="2946400"/>
+          <a:ext cx="6603999" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>画像、ジャンル、名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>82553</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DE49BC-BF6D-AA47-BF14-30F838A234BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8032753" y="5359399"/>
+          <a:ext cx="641348" cy="317501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1653,18 +2744,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883B088D-4130-41D2-B9B4-92FD2E925C57}">
   <dimension ref="B1:AB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.625" style="1"/>
+    <col min="1" max="1" width="0.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="3.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:28" ht="3.75" customHeight="1"/>
+    <row r="2" spans="2:28" ht="27.75" customHeight="1">
       <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1677,7 +2768,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="4" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:28" ht="15" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +2799,7 @@
       <c r="AA4" s="15"/>
       <c r="AB4" s="16"/>
     </row>
-    <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:28" ht="15" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
         <v>1</v>
@@ -1739,7 +2830,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="8"/>
     </row>
-    <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:28" ht="15" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
@@ -1770,7 +2861,7 @@
       <c r="AA6" s="15"/>
       <c r="AB6" s="16"/>
     </row>
-    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:28" ht="15" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -1801,7 +2892,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:28" ht="15" customHeight="1">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -1834,7 +2925,7 @@
       <c r="AA8" s="11"/>
       <c r="AB8" s="12"/>
     </row>
-    <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:28" ht="15" customHeight="1">
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1865,7 +2956,7 @@
       <c r="AA9" s="11"/>
       <c r="AB9" s="12"/>
     </row>
-    <row r="10" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:28" ht="15" customHeight="1">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1896,7 +2987,7 @@
       <c r="AA10" s="11"/>
       <c r="AB10" s="12"/>
     </row>
-    <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:28" ht="15" customHeight="1">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="13"/>
@@ -1927,7 +3018,7 @@
       <c r="AA11" s="11"/>
       <c r="AB11" s="12"/>
     </row>
-    <row r="12" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:28" ht="15" customHeight="1">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1958,7 +3049,7 @@
       <c r="AA12" s="11"/>
       <c r="AB12" s="12"/>
     </row>
-    <row r="13" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:28" ht="15" customHeight="1">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1989,7 +3080,7 @@
       <c r="AA13" s="11"/>
       <c r="AB13" s="12"/>
     </row>
-    <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:28" ht="15" customHeight="1">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -2020,7 +3111,7 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="12"/>
     </row>
-    <row r="15" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:28" ht="15" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2051,7 +3142,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="8"/>
     </row>
-    <row r="16" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:28" ht="15" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -2082,7 +3173,7 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:28" ht="15" customHeight="1">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
@@ -2115,7 +3206,7 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="12"/>
     </row>
-    <row r="18" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:28" ht="15" customHeight="1">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2146,7 +3237,7 @@
       <c r="AA18" s="11"/>
       <c r="AB18" s="12"/>
     </row>
-    <row r="19" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:28" ht="15" customHeight="1">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2177,7 +3268,7 @@
       <c r="AA19" s="11"/>
       <c r="AB19" s="12"/>
     </row>
-    <row r="20" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:28" ht="15" customHeight="1">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2208,7 +3299,7 @@
       <c r="AA20" s="11"/>
       <c r="AB20" s="12"/>
     </row>
-    <row r="21" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:28" ht="15" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2251,17 +3342,17 @@
   <dimension ref="B1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG38" sqref="AG38"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.625" style="1"/>
+    <col min="1" max="1" width="0.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="2.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="2.25" customHeight="1"/>
+    <row r="2" spans="2:7" ht="24.75" customHeight="1">
       <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
@@ -2279,14 +3370,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5F3377-67D4-494D-B7D8-D8A5B10CDCF7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248DEDEE-7705-1146-8128-FB363070ED04}">
+  <dimension ref="B1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG38" sqref="AG38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="0.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="2.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="2.25" customHeight="1"/>
+    <row r="2" spans="2:7" ht="24.75" customHeight="1">
+      <c r="B2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622BBF19-ADBE-A649-9646-309BE42CB152}">
+  <dimension ref="B1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="0.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="2.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="2.25" customHeight="1"/>
+    <row r="2" spans="2:7" ht="24.75" customHeight="1">
+      <c r="B2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/WearSystem機能仕様書.xlsx
+++ b/WearSystem機能仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuhiro/Desktop/WEAR_SYSTEM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\km199\OneDrive\デスクトップ\wearSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899DD784-0F0B-944D-87AC-F92AA4065BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A71C86A-43CA-4F6E-8CD0-CF190C4103B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16000" xr2:uid="{91EAEFB3-A573-405F-A73E-C2F402B2D069}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{91EAEFB3-A573-405F-A73E-C2F402B2D069}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>システム概要</t>
     <rPh sb="4" eb="6">
@@ -124,12 +124,63 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TOP画面に表示する内容</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Just Now:また欲しいもの、今欲しいもの</t>
+    <rPh sb="12" eb="13">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示内容</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ジャンル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・商品名</t>
+    <rPh sb="1" eb="4">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・In The Future:気になっているもの</t>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,16 +525,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -498,7 +549,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5410200" y="1581150"/>
+          <a:off x="857250" y="1562100"/>
           <a:ext cx="2905125" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -525,10 +576,17 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>また欲しいものリスト</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In The Future</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -537,16 +595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -561,7 +619,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="866776" y="1581150"/>
+          <a:off x="5438776" y="1533525"/>
           <a:ext cx="2905125" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -588,10 +646,17 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>気になっているものリスト</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Just Now</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2744,18 +2809,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883B088D-4130-41D2-B9B4-92FD2E925C57}">
   <dimension ref="B1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="1" width="0.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="3.75" customHeight="1"/>
-    <row r="2" spans="2:28" ht="27.75" customHeight="1">
+    <row r="1" spans="2:28" ht="3.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
@@ -2768,7 +2833,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="4" spans="2:28" ht="15" customHeight="1">
+    <row r="4" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
@@ -2799,7 +2864,7 @@
       <c r="AA4" s="15"/>
       <c r="AB4" s="16"/>
     </row>
-    <row r="5" spans="2:28" ht="15" customHeight="1">
+    <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
         <v>1</v>
@@ -2830,7 +2895,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="8"/>
     </row>
-    <row r="6" spans="2:28" ht="15" customHeight="1">
+    <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
@@ -2861,7 +2926,7 @@
       <c r="AA6" s="15"/>
       <c r="AB6" s="16"/>
     </row>
-    <row r="7" spans="2:28" ht="15" customHeight="1">
+    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -2892,7 +2957,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="2:28" ht="15" customHeight="1">
+    <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -2925,7 +2990,7 @@
       <c r="AA8" s="11"/>
       <c r="AB8" s="12"/>
     </row>
-    <row r="9" spans="2:28" ht="15" customHeight="1">
+    <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2956,7 +3021,7 @@
       <c r="AA9" s="11"/>
       <c r="AB9" s="12"/>
     </row>
-    <row r="10" spans="2:28" ht="15" customHeight="1">
+    <row r="10" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2987,7 +3052,7 @@
       <c r="AA10" s="11"/>
       <c r="AB10" s="12"/>
     </row>
-    <row r="11" spans="2:28" ht="15" customHeight="1">
+    <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="13"/>
@@ -3018,7 +3083,7 @@
       <c r="AA11" s="11"/>
       <c r="AB11" s="12"/>
     </row>
-    <row r="12" spans="2:28" ht="15" customHeight="1">
+    <row r="12" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -3049,7 +3114,7 @@
       <c r="AA12" s="11"/>
       <c r="AB12" s="12"/>
     </row>
-    <row r="13" spans="2:28" ht="15" customHeight="1">
+    <row r="13" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -3080,7 +3145,7 @@
       <c r="AA13" s="11"/>
       <c r="AB13" s="12"/>
     </row>
-    <row r="14" spans="2:28" ht="15" customHeight="1">
+    <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -3111,7 +3176,7 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="12"/>
     </row>
-    <row r="15" spans="2:28" ht="15" customHeight="1">
+    <row r="15" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3142,7 +3207,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="8"/>
     </row>
-    <row r="16" spans="2:28" ht="15" customHeight="1">
+    <row r="16" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -3173,7 +3238,7 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="2:28" ht="15" customHeight="1">
+    <row r="17" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
@@ -3206,7 +3271,7 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="12"/>
     </row>
-    <row r="18" spans="2:28" ht="15" customHeight="1">
+    <row r="18" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -3237,7 +3302,7 @@
       <c r="AA18" s="11"/>
       <c r="AB18" s="12"/>
     </row>
-    <row r="19" spans="2:28" ht="15" customHeight="1">
+    <row r="19" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -3268,7 +3333,7 @@
       <c r="AA19" s="11"/>
       <c r="AB19" s="12"/>
     </row>
-    <row r="20" spans="2:28" ht="15" customHeight="1">
+    <row r="20" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -3299,7 +3364,7 @@
       <c r="AA20" s="11"/>
       <c r="AB20" s="12"/>
     </row>
-    <row r="21" spans="2:28" ht="15" customHeight="1">
+    <row r="21" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3339,20 +3404,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FE3A64-7C8A-4D10-AD63-7889220EFA25}">
-  <dimension ref="B1:G2"/>
+  <dimension ref="B1:BD10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BI13" sqref="BI13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="2.25" customHeight="1"/>
-    <row r="2" spans="2:7" ht="24.75" customHeight="1">
+    <row r="1" spans="2:56" ht="2.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:56" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
@@ -3362,10 +3427,41 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
+    <row r="5" spans="2:56" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BB5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:56" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BB6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:56" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BB7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:56" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BC8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:56" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BD9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:56" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BD10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3377,14 +3473,14 @@
       <selection activeCell="AG38" sqref="AG38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="2.25" customHeight="1"/>
-    <row r="2" spans="2:7" ht="24.75" customHeight="1">
+    <row r="1" spans="2:7" ht="2.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
@@ -3409,14 +3505,14 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="2.25" customHeight="1"/>
-    <row r="2" spans="2:7" ht="24.75" customHeight="1">
+    <row r="1" spans="2:7" ht="2.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
